--- a/data/adv_free.xlsx
+++ b/data/adv_free.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xian/Dropbox/proj_CYOA/beh_study/z_paper/1_use/github_share/cyoa/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1911A2CC-4EFA-4A41-92EF-EB358021CCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC0246F-5FE6-0D43-BF9D-DE47A453E838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-87200" yWindow="3600" windowWidth="28800" windowHeight="16420" xr2:uid="{343C9A83-F4D1-6B4B-A269-08CD445AB120}"/>
+    <workbookView xWindow="5700" yWindow="1520" windowWidth="24180" windowHeight="17500" xr2:uid="{343C9A83-F4D1-6B4B-A269-08CD445AB120}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -68,21 +68,9 @@
     <t xml:space="preserve"> "I wake from a dream, it is fading away, slipping through my fingers, there was a mirror and a rabbit. You wake up and realise there is a bird sitting on your chest, I chose to try and pet it but it flew away, I chose to try and find the bird but the sun was setting. I chose to try and find somewhere to shelter for the night. I walked for a long time through the woods and found a village, the name was something beginning with D - it sounded a bit German but I can't remember the specific name. All of the lights were out but one, I knocked on the door and an old man answered and stared at me, I chose to ask if I could come in, the old man let me in and we sat by the fire, I chose not to interrupt the silence. He put his hand to his moth and exclaimed that he couldn't believe it - I asked what he couldn't believe. He said that he couldn't believe it was 'me' and explained that I am heir to the throne. A woman had put me under a spell to sleep until I was old enough to rule, there had been rumours that the potion was too weak and I would walk up too early but 'here I am'. I was confused and shocked that they left me alone in the woods. Names flashed up in my mind and started coming back to me. Was I really the Heir. Heartlands. The end."</t>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,15,15_3,231_1,93,94,95,76,76_2,193,194,195,196,197,198,198_2,260,261,262,263,264,264_1,447,448,448_1,449,450,450_1,453,454,455,456,456_2,468,469,470,471,471_2,466,467,467_2,489,490,491,492,493,494,495,496,497,498,499,500,501,502,503,</t>
-  </si>
-  <si>
-    <t>"Blackness. You're slowly waking from a dream. What was it about? It is already beginning to fade... Was there a mirror? A rabbit? I was having tea with someone... It all seemed so urgent! You try grasping for details, to try and hold onto the dream for just a little bit longer. Fading. It slips through your fingers and disappears. Like dreams often do. Slowly, whirling colors and shapes appear. You awake, head reeling, to see a small bird sitting on your chest. It chirps. It chirps. Try to pet it Get up and look around You pull yourself up. You appear to be in some sort of woodland area, surrounded by mushrooms and small flowers. The sun is just beginning to set. Now what? Walk around until you find shelter The woods go on for a good while before you stumble upon a village. There is a  'DUCHARD'. You venture into the village. It is very dark now, and most of the lights are out, except one. You knock, and an old man answers. He stares at you for a good while, examining every detail of your face. I'm sorry to bother you but may I come in? He steps aside to allow you in. The room is warm, and you sit by the fire. You thank him for his kindness. However, he does not speak a word. He simply continues to stare at you. Remain quiet He sits down in an arm chair across from you and raises a hand to his mouth. I...I simply don't believe it. What is it? Well...well it's just that...well, you.... He quickly gets up and bows. Why are you bowing? He looks at you confused. You're.....You're Irascile Heart. The heir of the Heart Kingdom. Finally, you have awoken after many years! No, I'm not. At least, I don't think I am. I know you are. I may be an elderly gentleman, but I'd know your face anywhere. The royal family are my passion. I have devoted my life to learning all I can but never did I imagine meeting a royal! And I never imagined how hungry I could be. Would you care for some tea? he asks. I have fresh bread and jam too. Yes please. The old man toddles off. This is all so surreal. An heir? You? You are remembering now. Faint images of childhood. Names. Mary Ann. Phrenesis. But who did these names belong to? You ask the old man if you can stay the night and he allows it. He tries to give up his bed for you, but you won't allow it. Instead you sleep in his armchair. Tomorrow, you begin your journey to seek answers. To see if you can live up to this  Heir of the Heart Kingdom."</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "I woke up from a dream that I couldn't quite remember. There was something about a mirror. When I awaken, there is a bird sitting on my chest. As I try to pet it, it flies away and I follow after it into a field. I chose the option to look for shelter and arrived in a village called Durchard. In the village, all of the lights are out except for one house, so I knock on the door of this hous.e. An old man opens the door and I ask if I can come in. He lets me in and I sit by the fire. He is quiet the whole time before I ask him what is wrong. He responds that he can't believe it but that I am the heiress to the Royal Family of Hearts. I tell him I'm not sure that he is right but he insists that he is an expert in the royal family. While we talk, names like Mary Ann and Phenersis come to my mind. At some point I tell him that I'm hungry and he brings me tea. The story ends with me in his house talking about how I belong to the royal family. "</t>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,15_1,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,36_1,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,57_1,63,64,65,66,66_1,72,73,74,75,76,76_1,226,227,228,229,230,230_1,232,233,234,235,236,237,237_1,371,372,373,374,375,376,377,378,379,380,381,382,382_1,383,384,385,385_1,401,402,403,404,405,406,407,408,409,410,411,412,413,414,415,416,417,418,419,420,421,422,423,424,425,426,427,428,428_1,240,241,242,243,244,245,246,247,247_1,429,430,431,432,432_1,433,434,435,436,436_1,437,438,439,440,441,442,443,444,445,446,446_1,447,448,448_1,449,450,450_1,453,454,455,456,456,456_1,461,462,462_1,463,464,465,466,467,467_1,476,477,478,479,480,481,482,483,484,485,486,487,488,</t>
-  </si>
-  <si>
-    <t>"Blackness. You're slowly waking from a dream. What was it about? It is already beginning to fade... Was there a mirror? A rabbit? I was having tea with someone... It all seemed so urgent! You try grasping for details, to try and hold onto the dream for just a little bit longer. Fading. It slips through your fingers and disappears. Like dreams often do. Slowly, whirling colors and shapes appear. You awake, head reeling, to see a small bird sitting on your chest. It chirps. Speak to the bird Hello, you say. It chirps merrily, bobbing its head. You must have pleased it. Your stomach growls. The little bird shoots off into the woods. An untimely end to your budding friendship. You realize that you're starving. When's the last time you ate? Moments later, your bird friend returns. This time, it drops a beakful of berries into your lap and chirps at you again. Are these for me? you ask. You feel silly about thanking a bird. You decide to do it anyway before popping some of the berries into your mouth. They're sweet and surprisingly filling. There's even a few left over to save for later. You slip them into your pocket. You start to feel a bit better. You glance at the small bird again. It stares back, once more chirping merrily. It hops forward and sings a short sweet tune. It then stares at you again. Repeat tune You get the feeling that it is asking you for something. Bird's don't often make requests of you... You try to repeat the bird's tune back to it. Maybe that's the place to start? The hoarseness of your voice scares yourself and the little bird! Oh dear! You're parched. You're not much of a singer, but you're not that terrible. Some water would do you wonders. The bird hops away and returns, moments later, with a small glass vial of what looks like water. You take the tiniest sip. It's faintly fragrant and immediately makes you feel much better. You tuck what's left of the vial into your pocket. You clear your throat and try repeating the bird's tune again. The bird flutters its wings. Yes! Yes! Very good, very good! it sings. It then flies to the nearest branch. Come along! We've much to disgust. Did I say the right word then? Birds can talk? How rude! Speciesist! The bird ruffles its feathers. How ludicrous. Oh be quiet! Well, I never! The bird flies away, leaving you alone in the woods. Well done. It's getting dark. Now what? Rest until morning It would be easier to navigate in the light. You curl up by a tree and try to sleep. The night is bitter and the wind howls in your ears....that was the wind, yes? Surely....no....no, you're just paranoid. It's nothing......isn't it? Stay there It's nothing. You curl back up to sleep. You begin to dream. You're running. She's going to find you if you don't hide! Quick, left or right? Left! You dash left, giggling away. You're giggling so much, you don't see where you're go- OUCH! You run right into Mary Ann, your best friend. You laugh together quietly until you hear, Ready or not, here I come! Mary Ann has run off. You head back to the right. The nettles are pricking your ankles, but you hardly care. You're having too much fun! Suddenly you stumble. As you pick yourself up, you see something on a thick tree trunk. Is that....is that a little door? It's the perfect size for a little child like you, plus you need a hiding place. Open it and hide inside It's dark behind the door. Incredibly quiet, which is strange as you're certain sound travels through wood. Perhaps this was a bad idea. Go back through the door You try to turn the handle, but it's locked. How did that happen? Still, you've got no choice. You begin to walk further into the tree. For a rather thin trunk, this place went on for a good few steps. All of a sudden, light floods the room from above. High above, you can see blue sky. Curiousity gets the best of you, and you begin to climb up towards it. Higher and higher you go, soon oblivious to why you were there in the first place. Eventually, you reach the top. The sweet gentle scent of daisy wafts up your nose. You look around at the world up top. It's brighter and clearer than  a field full of daisies. The hole you are in is located just beneath an old oak tree. In the distance you see children, like you but dressed in white, playing. You see an older gentleman, in white also. He calls to the  Now now, come along. I'd say you all were the loudest children in England! Now let's have you in! The children follow him. You want to meet them. You wanted to explore what was up the rabbit hole. This 'England.' You pull yourself slowly out of the-   A hand grabs your leg. You're falling down, down, down the rabbit hole. Further and further and further and-  You wake up. It's quiet..... except for the heavy breathing on your neck. You leap up with a start to see the most hideous black hound barking at you. RUN! You're sprinting through the woods. You can hear snarling behind you. You dare not turn around. You see ahead a village. Oh god, please let someone be a friend! You knock frantically at the door of the first house you find. An elderly man opens the door. Oddly, he stares at you, as though taking in every detail of your face. Please let me in! There are dogs after me! Your words shake him from his reverie. He sees the hound behind you, fast-approaching. A hound! You must have the scent of houndberries on you! he yelled. Ravenous hounds will track the scent of those berries for miles! Houndberries? What berries? Ah! You almost forgot! You still have some of the berries Dr. Peeps gave you. They're in your pocket! Maybe you can throw them away to distract the hound! Throw the berries into the woods! Without hesitation, you take the remaining berries from your pocket. With all your strength, you throw them far away from the house and into the woods. As if pulled by a string, the hound jerks away and runs in the direction of the berries. The barking fades as it bounds into the woods. You let out a sigh. What a relief! With the hound distracted, you turn to the old man for shelter. He steps aside, allowing you in. He puts a plank across the door, and the sound of dogs soon fades away. You thank the man, yet he continues to stare at you. Remain quiet He sits down in an arm chair across from you and raises a hand to his mouth. I...I simply don't believe it. What is it? Well...well it's just that...well, you.... He quickly gets up and bows. Why are you bowing? He looks at you confused. You're.....You're Irascile Heart. The heir of the Heart Kingdom. Finally, you have awoken after many years! Finally, you have awoken after many years! Who? Many years ago, Queen Nora of Hearts ordered that you were to be put to sleep until you were old enough to rule. Rumours that your governess made the potion too weak on purpose so that you may come back earlier spread like wild fire, but I had always brushed them off as myths, idle gossip, and yet, here you are! They left me in alone in the woods? No. You were left sealed in your room. That is the extent of my knowledge. Would you care for some tea? he asks. I have fresh bread and jam too. Yes. The old man toddles to the shelves. You could get use to this. The power. The respect. You are remembering now. Faint images of childhood. Names. Mary Ann. Phrenesis. But who did these names belong to? You decide to stay the night in the old man's house, taking his bed while he sleeps on the floor. Tomorrow, you begin your journey to seek answers. To seek your  Heir of the Heart Kingdom."</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "It began with the fading perception of  dream, is it a rabbit, mirror? then a few people sitting and having tea. its still a bit fuzzy, i wake up an before me and on my chest is a bird, i speak to it by saying hello friend, it chirps happily and flies away, i got off bird kind of hungry and along returns the bed with some berries, surprised, i grabbed and had some and put some in my pockets. bird sang to me and i decided to sing back but my voice was hoarse, oops i figured i needed some water., bird flew away and got me some, it was refreshing, once again i tried to sing along and bird responded, bird could talk. it flew into the forest and i followed. it eventually found a place to sleep. i dreamt that i woke up to see a wooden tree with a door . i walked in and it was dark and it later brightened up, series of events ocurred and i later woke up to the barking of a black hound, i ran and into the woods hoping to find  friend or shelter, hound chased after, later figured it was a houndberry and was basically drawn to the berries in my pocket, i threw the berries as far away as i could, and the hound immediately changed direction and towards the berrries. i took  deep sigh of relief."</t>
   </si>
   <si>
@@ -104,12 +92,6 @@
     <t xml:space="preserve"> "I remember it was dark and i was waking up from a dream. I tried to hold onto to it but I couldnt. I remember There was a bird who landed on my chest and I decided to pet the bird instead of staring at it. I waited until sunrise because it would be better to see in the sunlight. I went to sleep but I heard a noise of dogs so I decided to run away and i saw a village. The village i got to i was hoping for friends and i knocked on a mans house and asked if i could come in because i was being chased by some dogs. He let me in and the man just kept staring at me. I remained quite. He then said you are a royal Heir. I did not believe him and he explained what had happened in the childhood and explained it was too weak for me to stay alseep. He offered be some tea and gave me Jam and Bread. He also allowed me to stay the night and tried giving up hisbed but I would not allow it. Instead I slept on his arm chair."</t>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,15_3,231_1,93,94,95,76,76_3,265,266,267,267_3,268,269,270,270_2,193,194,195,196,197,198,198,198_2,260,261,262,263,264,264,264_2,457,458,459,460,460_1,453,454,455,456,456_2,468,469,470,471,471_1,466,467,467_2,489,490,491,492,493,494,495,496,497,498,499,500,501,502,503,</t>
-  </si>
-  <si>
-    <t>"Blackness. You're slowly waking from a dream. What was it about? It is already beginning to fade... Was there a mirror? A rabbit? I was having tea with someone... It all seemed so urgent! You try grasping for details, to try and hold onto the dream for just a little bit longer. Fading. It slips through your fingers and disappears. Like dreams often do. Slowly, whirling colors and shapes appear. You awake, head reeling, to see a small bird sitting on your chest. It chirps. Try to pet it Get up and look around You pull yourself up. You appear to be in some sort of woodland area, surrounded by mushrooms and small flowers. The sun is just beginning to set. Now what? Follow where the bird went You trot after where you think the bird was headed and come to a river. There's no way of crossing as the current is strong. One way leads amongst dense trees, the other across barren land. Go back into the woods Perhaps that wasn't the best option. You go back to the clearing. It's getting darker and colder. Start looking for shelter The woods go on for a good while before you stumble upon a village. There is a  'DUCHARD'. You venture into the village. It is very dark now, and most of the lights are out, except one. You knock, and an old man answers. He stares at you for a good while, examining every detail of your face. He stares at you for a good while, examining every detail of your face. I'm sorry to bother you but may I come in? He steps aside to allow you in. The room is warm, and you sit by the fire. You thank him for his kindness. However, he does not speak a word. He simply continues to stare at you. He simply continues to stare at you. Is there anything wrong? Wrong? No, no. Simply...well, it's you. We don't often meet royalty. Royalty? He looks at you confused. You're.....You're Irascile Heart. The heir of the Heart Kingdom. Finally, you have awoken after many years! No, I'm not. At least, I don't think I am. I know you are. I may be an elderly gentleman, but I'd know your face anywhere. The royal family are my passion. I have devoted my life to learning all I can but never did I imagine meeting a royal! This is all a little much. Would you care for some tea? he asks. I have fresh bread and jam too. Yes please. The old man toddles off. This is all so surreal. An heir? You? You are remembering now. Faint images of childhood. Names. Mary Ann. Phrenesis. But who did these names belong to? You ask the old man if you can stay the night and he allows it. He tries to give up his bed for you, but you won't allow it. Instead you sleep in his armchair. Tomorrow, you begin your journey to seek answers. To see if you can live up to this  Heir of the Heart Kingdom."</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "I am trying to remember a dream I had. It started with a bird that flew away when I tried to touch it. I tried to follow the bird into the woods but that wasn't a good idea so I turned back. It was dark so I looked for shelter. I saw a sign to a village called something beginning with D, Dunnach? I go into the village and knock on the door of a house. An elderly man answers and stares at me. I ask if I can come in and he lets me but still doesn't speak. I ask if he is okay and he tells me he can't believe he's meeting royalty. I'm confused and tell him I'm not royalty but he insists I am and offers tea and bread and jam. I accept and start to remember visions of my childhood. I am the heir of heart village."</t>
   </si>
   <si>
@@ -122,12 +104,6 @@
     <t xml:space="preserve"> "I was having a dream about a mirror and a rabbit and it was fading as I woke up, I was slowly forgetting aspects of the dream and I woke up with a bird on my chest, when going to pet the bird it flew away. I woke up and found a town as I was looking for shelter. I knocked on one of the doors and there was an old man who let me in but he was speechless.I asked him what was wrong and he couldn't believe he thought I was an heir to the royal family. He was a big fan of the royal family and I started to remember others in the royal family."</t>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,15_1,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,36_2,58,59,59_3,69,70,70,70,70_1,71,71,71_1,63,64,65,66,66_2,77,78,78_1,79,80,81,82,83,84,85,85_1,108,109,110,111,112,113,114,115,116,117,117_2,150,151,152,153,154_1,154,155,156,157,157_2,163,164,165,165_1,170,171,172,172_2,178,179,179_2,183,184,185,186,187,188,189,189_2,199,200,201,202,203,204,205,193,194,195,196,197,198,198_2,260,261,262,263,264,264_2,457,458,459,460,460_1,453,454,455,456,456_2,468,469,470,471,471_2,466,467,467_2,489,490,491,492,493,494,495,496,497,498,499,500,501,502,503,</t>
-  </si>
-  <si>
-    <t>"Blackness. You're slowly waking from a dream. What was it about? It is already beginning to fade... Was there a mirror? A rabbit? I was having tea with someone... It all seemed so urgent! You try grasping for details, to try and hold onto the dream for just a little bit longer. Fading. It slips through your fingers and disappears. Like dreams often do. Slowly, whirling colors and shapes appear. You awake, head reeling, to see a small bird sitting on your chest. It chirps. Speak to the bird Hello, you say. It chirps merrily, bobbing its head. You must have pleased it. Your stomach growls. The little bird shoots off into the woods. An untimely end to your budding friendship. You realize that you're starving. When's the last time you ate? Moments later, your bird friend returns. This time, it drops a beakful of berries into your lap and chirps at you again. Are these for me? you ask. You feel silly about thanking a bird. You decide to do it anyway before popping some of the berries into your mouth. They're sweet and surprisingly filling. There's even a few left over to save for later. You slip them into your pocket. You start to feel a bit better. You glance at the small bird again. It stares back, once more chirping merrily. It hops forward and sings a short sweet tune. It then stares at you again. Wait Oddly, the bird starts tapping a tiny claw against your chest. Hmph. it mutters in a high pitched tone. Did you just 'hmph'? Oh, I'M lacking in manners, am I? the bird chirps. It sighs and sings the same tune again. It sighs and sings the same tune again. It sighs and sings the same tune again. You're a talking bird. Yes, I am. Yes, I am. Birds don't talk. How rude! Speciesist! The bird ruffles its feathers. How ludicrous. Sorry. I should think so! Think before you speak, child. I'm not a child! The bird ruffles its feathers. Have you looked at yourself recently? You look yourself over and, lo ...you really are a child. Weird. I knew it. I'm a professor you know. Rarely wrong, always right....except for when I'm wrong, but that's rare. You have a funny way of talking. And you have a funny way of looking! You've obviously offended the little bird, however he shakes it off and continues to  This is Tall Wood in the northeastern corner of Wonderland. Most animals can talk, some can't. Some can but don't bother, and some can't but try anyway. Anyway, if you head southwest, you can reach the Heart Kingdom. A long walk, mind you, but a wonderful city. By heading just south of here, you may find the village of Duchard, ruled by a most beautiful duchess. Close but quiet. What is it you're looking for? Some answers. To which questions? You have so many. It's impossible to answer them all. I'd suggest finding a cat then. Where do I find one? Beastly, cunning things but they have an expansive knowledge of the world. Oh, you do not find cats. They find you. You'll meet one when it wants to be met, and vice versa. Then I don't know what to do. If you don't know then it doesn't matter where you go, to paraphrase the cats. The bird pulls a disgusted face. Personally, I'd head for Duchard first and get yourself prepared. Prepared for what? Travel, my dear! You can't stay in one place if you want to get to another. That's logic! Tell me about the Heart Kingdom. The Heart Kingdom is a city that surrounds the Heart Castle, where the Heart family live. Rather 'Hearty' if you ask me. Go on. It is the capital of Wonderland. We are ruled by Queen Nona Heart, a... The bird looks around before  Fat, old cow who does nothing but send folk to jail when they bug her. You're not sure why, but you feel slightly offended. He  It's a good half-day walk I'd imagine. I must say, you look simply ragged. You should rest up first in Duchard. I'll go to Duchard then. It's the wisest option, the bird cheeps. This way. You follow this bird through the woods. Soon things become familiar. The bread and butterflies, the caterpillars, the smell of fresh toadstools. It's soon apparent that you're not a stranger to the land as a whole, just to this place. As you are pondering, you come to the realisation that the bird has flown off, leaving you alone. The woods go on for a good while before you stumble upon a village. There is a  'DUCHARD'. You venture into the village. It is very dark now, and most of the lights are out, except one. You knock, and an old man answers. He stares at you for a good while, examining every detail of your face. I'm sorry to bother you but may I come in? He steps aside to allow you in. The room is warm, and you sit by the fire. You thank him for his kindness. However, he does not speak a word. He simply continues to stare at you. Is there anything wrong? Wrong? No, no. Simply...well, it's you. We don't often meet royalty. Royalty? He looks at you confused. You're.....You're Irascile Heart. The heir of the Heart Kingdom. Finally, you have awoken after many years! No, I'm not. At least, I don't think I am. I know you are. I may be an elderly gentleman, but I'd know your face anywhere. The royal family are my passion. I have devoted my life to learning all I can but never did I imagine meeting a royal! And I never imagined how hungry I could be. Would you care for some tea? he asks. I have fresh bread and jam too. Yes please. The old man toddles off. This is all so surreal. An heir? You? You are remembering now. Faint images of childhood. Names. Mary Ann. Phrenesis. But who did these names belong to? You ask the old man if you can stay the night and he allows it. He tries to give up his bed for you, but you won't allow it. Instead you sleep in his armchair. Tomorrow, you begin your journey to seek answers. To see if you can live up to this  Heir of the Heart Kingdom."</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "It was dark. I was waking up from a dream. I tryied to remember the dream but the memory is fading fast. Like most dreams, the memory fades completely. I notice there is a bird on my chest. It chirps at me but flies away when my stomach growls. Then the bird flies off to shortly return with some berries. I decide to eat the berries and find myself becoming full and saving some of the berries for later. Then the bird begins to talk to me. I feel silly talking to a bird, I manage to offend the bird but quickly apologize. The bird then refers to me as a child. The bird begins telling about the Kingdom of Hearts. It doesn't sound like such a great place t me. The bird tells me I look ragged and that I should go rest at a nearby village. I noticed that after the bird called me a child that I was actually a child again for some reason. I start walking and without noticing, the bird has left me. I make it to the village and knock on a door and ask to come in. The man that lets me in explains that I am royalty and heir to the throne of the Kingdom of Hearts. I tell him that I am not royalty because I really don't remember ever being royalty. He reassures me that I am indeed the heir to the throne and how he has devoted his life to the royal family and recognizes my face without a doubt. I ask if I can sleep there and he agrees and tries to offer me his bed to which I decline. I choose to sleep in his arm chair."</t>
   </si>
   <si>
@@ -140,12 +116,6 @@
     <t xml:space="preserve"> "I was awaken from a dream  that I forgot very quickly. Than a talking bird was sitting and singing on my chest than flew away. I went after it and found myself in the woods beside a river. I was very tired but went on and found a castle  but a passed out I was so tired. I found myself in a room with two boys and a men who saved me and he told me I was the daughter of the queen of th Harts and was put to sleep until I was 25 but I got up far too early so I should go back but in the end he let me stay awake. and I started to find out who I was,"</t>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,15_1,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,36_1,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,57_1,63,64,65,66,66_2,77,78,78_1,79,80,81,82,83,84,85,85_3,130,131,132,133,133_2,133,118,119,120,121,122,123,124,125,126,127,128,129,110,111,112,113,114,115,116,117,117,117_4,163,164,165,165,165_1,170,171,172,172,172_2,178,179,179,179_2,183,184,185,186,187,188,189,189,189_2,199,200,201,202,203,204,205,193,194,195,196,197,198,198,198,198_1,248,249,250,251,252,252,252_1,253,254,255,256,256_1,453,454,455,456,456_3,472,473,474,475,466,467,467,467_2,489,490,491,492,493,494,495,496,497,498,499,500,501,502,503,</t>
-  </si>
-  <si>
-    <t>"Blackness. You're slowly waking from a dream. What was it about? It is already beginning to fade... Was there a mirror? A rabbit? I was having tea with someone... It all seemed so urgent! You try grasping for details, to try and hold onto the dream for just a little bit longer. Fading. It slips through your fingers and disappears. Like dreams often do. Slowly, whirling colors and shapes appear. You awake, head reeling, to see a small bird sitting on your chest. It chirps. Speak to the bird Hello, you say. It chirps merrily, bobbing its head. You must have pleased it. Your stomach growls. The little bird shoots off into the woods. An untimely end to your budding friendship. You realize that you're starving. When's the last time you ate? Moments later, your bird friend returns. This time, it drops a beakful of berries into your lap and chirps at you again. Are these for me? you ask. You feel silly about thanking a bird. You decide to do it anyway before popping some of the berries into your mouth. They're sweet and surprisingly filling. There's even a few left over to save for later. You slip them into your pocket. You start to feel a bit better. You glance at the small bird again. It stares back, once more chirping merrily. It hops forward and sings a short sweet tune. It then stares at you again. Repeat tune You get the feeling that it is asking you for something. Bird's don't often make requests of you... You try to repeat the bird's tune back to it. Maybe that's the place to start? The hoarseness of your voice scares yourself and the little bird! Oh dear! You're parched. You're not much of a singer, but you're not that terrible. Some water would do you wonders. The bird hops away and returns, moments later, with a small glass vial of what looks like water. You take the tiniest sip. It's faintly fragrant and immediately makes you feel much better. You tuck what's left of the vial into your pocket. You clear your throat and try repeating the bird's tune again. The bird flutters its wings. Yes! Yes! Very good, very good! it sings. It then flies to the nearest branch. Come along! We've much to disgust. Did I say the right word then? Birds can talk? How rude! Speciesist! The bird ruffles its feathers. How ludicrous. Sorry. I should think so! Think before you speak, child. I'm not a child! The bird ruffles its feathers. Have you looked at yourself recently? You look yourself over and, lo ...you really are a child. Weird. I knew it. I'm a professor you know. Rarely wrong, always right....except for when I'm wrong, but that's rare. What is your name? Dr. Peeps. Not to be confused with Dr. Peeps the younger. Or Dr. Peeps the fatter. Or Dr. Peeps the slightly cross-eyed. Where am I? Or Dr. Peeps the slightly cross-eyed. It gives you a quizzical look. How can you not know? How curious. Do you have amnesia? Have you sleepwalked? Are you dreaming? Am I dreaming? What is dreaming? How can- Oh. Pardon me. I'm getting all twisted and turned. Allow me to  This is Tall Wood in the northeastern corner of Wonderland. Most animals can talk, some can't. Some can but don't bother, and some can't but try anyway. Anyway, if you head southwest, you can reach the Heart Kingdom. A long walk, mind you, but a wonderful city. By heading just south of here, you may find the village of Duchard, ruled by a most beautiful duchess. Close but quiet. What is it you're looking for? What is it you're looking for? I'm simply not sure. If you don't know then it doesn't matter where you go, to paraphrase the cats. The bird pulls a disgusted face. Personally, I'd head for Duchard first and get yourself prepared. Personally, I'd head for Duchard first and get yourself prepared. Prepared for what? Travel, my dear! You can't stay in one place if you want to get to another. That's logic! That's logic! Tell me about the Heart Kingdom. The Heart Kingdom is a city that surrounds the Heart Castle, where the Heart family live. Rather 'Hearty' if you ask me. Rather 'Hearty' if you ask me. Go on. It is the capital of Wonderland. We are ruled by Queen Nona Heart, a... The bird looks around before  Fat, old cow who does nothing but send folk to jail when they bug her. You're not sure why, but you feel slightly offended. He  It's a good half-day walk I'd imagine. I must say, you look simply ragged. You should rest up first in Duchard. You should rest up first in Duchard. I'll go to Duchard then. It's the wisest option, the bird cheeps. This way. You follow this bird through the woods. Soon things become familiar. The bread and butterflies, the caterpillars, the smell of fresh toadstools. It's soon apparent that you're not a stranger to the land as a whole, just to this place. As you are pondering, you come to the realisation that the bird has flown off, leaving you alone. The woods go on for a good while before you stumble upon a village. There is a  'DUCHARD'. You venture into the village. It is very dark now, and most of the lights are out, except one. You knock, and an old man answers. He stares at you for a good while, examining every detail of your face. He stares at you for a good while, examining every detail of your face. He stares at you for a good while, examining every detail of your face. Oh, move old-timer! Push past him You push the old man into the wall. He coughs and splutters. You quickly shut the door. The old man holds his heart and toddles across the room into a chair. This is all too much for me at this time of night! This is all too much for me at this time of night! You should have moved. The old man's face drops. He looks so disappointed. I am truly sorry, your highness. I shall improve upon my speed in the future. Highness? He looks at you confused. You're.....You're Irascile Heart. The heir of the Heart Kingdom. Finally, you have awoken after many years! Yes I am. I knew it, I knew it! He seems very merry. I should tell you, I am a huge fan of the royal family! Suddenly, a loud growl comes from your stomach. Would you care for some tea? he asks. I have fresh bread and jam too. I have fresh bread and jam too. Yes please. The old man toddles off. This is all so surreal. An heir? You? You are remembering now. Faint images of childhood. Names. Mary Ann. Phrenesis. But who did these names belong to? You ask the old man if you can stay the night and he allows it. He tries to give up his bed for you, but you won't allow it. Instead you sleep in his armchair. Tomorrow, you begin your journey to seek answers. To see if you can live up to this  Heir of the Heart Kingdom."</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "At first I awake from blackness, which I soon become to realise is a dream. Opening waking I feel the confusion of thoughts and visions before feeling a bird suddenly land upon me. the bird chirps and I speak back to it saying hello. My stomach rumbles from the hunger which startles the bird to fly away. It turns out the bird was getting food for me, but I can't remember what. I then begin to sing a tune and my voice breaks from the thirst. Being thirsty myself the bird flies back out the window and returns with a vial. After recieving the vial I drink it and quench the first. After that I begin to sing once again, except this time the bird responds speaking in regular english. Being surprised I ask the bird if it can speak. I just remember also that the bird said \"yes, yes, very good, very good\" along something similar to that when I was singing after drinking. After I responded to the bird with \"you can speak\" it mocked me slightly, in the sense that of course he can speak since I can hear him. I asked at some point where am I before he responded with a \"dream\" perhaps? but then he began to talk about the two places, Durchard and The Heart Kingdom. I think it was something extra than heart but I'm not sure. Regardless we went on talking about the two places and I suggested to go to the heart kingdom but the bird suggested that it would be wise to go to Durchard or to stop at Durchard since travelling to the kingdom in one go would not be possible. Therefore we set out to Durchard. Upon arriving at Durchard there was an old man at a door. Being the rude person that I am I pushed the old man aside and against the door. I did not apologise afterwards. He then said it was simply too late for him and he should go back inside. I also remember that there were caterpillers on the road to Durchard and also that I remembered seeing mirrors and rabbits or squirrels when awaking from the dream. Back to the old man who had just decided to go inside. At some point he realises something and asks me if I'm the heir of the heart kingdom. I reply that I am promptly. Since he is happy to see that I am he offers me tea which I accept with a \"yes please\". After this I then am offered to stay at the place but he could not give up his bed? and so I was to sleep on the armchair. That's all that I remember."</t>
   </si>
   <si>
@@ -194,21 +164,9 @@
     <t xml:space="preserve"> "I awoke from a fading dream to a cheerful looking bird sitting nearby. As I greeted the bird I realized I was hungry and the bird flew off. It returned with some berries for me. Eating a few helped my hunger. The bird tweeted at me. I tried to whistle back at it but couldn't because I was so thirsty and my lips were dry. The birded also seemed to realize this and brought me a bit of water. After a sip I could tweet at him much better. Then it sopke to me. The bird asked if I was a child, to which I answered no but the bird told me to look at myself and behold, I was indeed a child. The bird was a professor who like to be called Dr. Peeps but not to confuse him with other Dr Peeps. I inquired as to where we were where and after a short conversation I decided to head down the path to a place called Duchard, a small village of Wonderland. After walking for about 20 minutes we arrived but the town was dark and no one was about. I knocked on a door nearby and an old man answered and he just sort of stared at me. I was invited in and gave food and refreshment. The man kept staring at me ehich was a bit creepy I admit and I asked him if something was wrong. He told me that I was a member of the royal family of the Heart Kingdom. I had been asleep for a long time and have finally awakened. I did indeed have some vague memories of people, Mary Ann? He allows me to stay the night and offers his own bed which I politely declinded and chose to rest in the armchair by the fireplace."</t>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,15_2,34,35,36,36_1,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,57_1,63,64,65,66,66_1,72,73,74,75,76,76_3,265,266,267,267_1,216,217,218,219,220,221,222,223,224,224_2,273,274,275,276,277,278,279,280,281,281_1,282,283,284,285,286,287,288,289,289_1,290,291,292,293,294,294_1,295,296,297,298,299,300,300_1,301,302,303,304,305,305,305_1,306,307,308,309,310,310_2,312,313,314,315,315_3,328,329,330,331,332,333,334,335,336,336_1,324,325,326,327,327_2,345,346,347,348,349,350,351,352,353,354,355,356,</t>
-  </si>
-  <si>
-    <t>"Blackness. You're slowly waking from a dream. What was it about? It is already beginning to fade... Was there a mirror? A rabbit? I was having tea with someone... It all seemed so urgent! You try grasping for details, to try and hold onto the dream for just a little bit longer. Fading. It slips through your fingers and disappears. Like dreams often do. Slowly, whirling colors and shapes appear. You awake, head reeling, to see a small bird sitting on your chest. It chirps. Stare at it It stares back, once more chirping merrily. It hops forward and sings a short sweet tune. It then stares at you again. Repeat tune You get the feeling that it is asking you for something. Bird's don't often make requests of you... You try to repeat the bird's tune back to it. Maybe that's the place to start? The hoarseness of your voice scares yourself and the little bird! Oh dear! You're parched. You're not much of a singer, but you're not that terrible. Some water would do you wonders. The bird hops away and returns, moments later, with a small glass vial of what looks like water. You take the tiniest sip. It's faintly fragrant and immediately makes you feel much better. You tuck what's left of the vial into your pocket. You clear your throat and try repeating the bird's tune again. The bird flutters its wings. Yes! Yes! Very good, very good! it sings. It then flies to the nearest branch. Come along! We've much to disgust. Did I say the right word then? Birds can talk? How rude! Speciesist! The bird ruffles its feathers. How ludicrous. Oh be quiet! Well, I never! The bird flies away, leaving you alone in the woods. Well done. It's getting dark. Now what? Follow where the bird went You trot after where you think the bird was headed and come to a river. There's no way of crossing as the current is strong. One way leads amongst dense trees, the other across barren land. Go towards the trees The river flows towards dense trees. You follow it for a good long while. You're tired and hungry, but still you continue through the night. Something in your gut drove you to do so. Soon, you reach a small, white brick bridge. Just over the bridge, a good mile away is a gigantic castle wall and iron gate. There is a small chance of making it before you pass out. Alternatively, there is shelter from the wind beneath the bridge. You could sleep there a while to regain your energy. Walk on to towards the gate A great urge to continue forces you to venture on. Nearly there, only about five more minutes until you reach the gate, however, your body gives up on you and you drop to your knees. Luckily for you, a guard at the gate spots you and rushes to your aid. Next thing you know, you're lying in an uncomfortable bed, head reeling. You just had the strangest dream about running, cat-human hybrids, small doors and 'going up the rabbit hole'. You brush it off however and look around. There are two twin boys at a table to your left. One is shaking about a rattle while the other watches with a jealous look upon his face. To your right, the guard that helped you is putting on his coat with his back to you. Excuse me, young sirs... Both boys spin around to look at you. DAD! shouts one. FATHER! shouts the other. DATHER! FAD! they both shout. Oh thank goodness! The guard turns around and smiles. You're awake, your highness! Huh? You were in a disastrous state, if I may say so. Luckily you had a drop of that potion of rejuvenation tucked away. To have such a thing in your pocket! It's quite rare, mind you! I don't know what I could have done without it! But I don't have any potion on me. The guard shows you a small empty vial. The exact one Dr. Peeps gave you to soothe your throat! You say it's just water. The guard replies Bah! Common misconception! The potion of rejuvenation looks and tastes exactly like water. Both are refreshing, but only one is rejuvenating! How can you tell them apart? The guard smiles.  But I'm a guard! It's my job to tell the good things from the bad things. The bad things from the good things, too! Also, it has a unique smell, your highness. Faint but sweet! Faint but sweet! Who are you? Oh, of course. How rude of me. I am Tweedle, and these are my sons, Dee and Dum. One stands up, I'm Dee, he's Dum. The other stands up, Cherrywise, I'm Dum, he's Dee. Wait, did you say 'your highness'? Why, yes! You are Irascile, heir to the Heart Kingdom throne. I'm trained to know your face inside out, although not really the inside of it. There'd be no point in that. What? Oh, of course. How rude of me! The guard exclaims. You must have very little memory of what has happened. I shall  Many years ago, Queen Nora of Hearts ordered that you were to be put to sleep until you were old enough to rule. However, your governess made the potion weak so that you may awake earlier and, well, here you are. The two boys jump up and run to your side wittering, Here you are! You are here! Are you here? You here are! I see. But now you see, I am faced with a problem, says the guard. By the queen's rule, you are not to have left your room until you are 25 and, if you would pardon me, you look too young to be so. Now I should take you back to your room and reseal you in until it is time (How you even escaped is beyond me), but my heart tells me to harbour you here and let you live your teenaged years. You obviously don't want the first option, but then the kind guard might get in serious trouble for breaking the law... Please let me stay here! Of course, your highness. You shall stay with me and the boys under an alias...um...ah! My second cousin, Ciel. So you stay with Tweedle and his sons, Dee and Dum. Still, questions swirl about your head. What happened to me? You decide you can't live this way forever. Eventually you will be of age, and they will try to find you. No. You need to start unravelling these mysteries now. In the morning, you will ask the guard to take you to your nanny. It seems like the logical place to start. You need you know what's behind the  Heir of the Heart Kingdom."</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "Blackness. You are slowly waking from a dream. What was it about? It is already beginning to fade. Was there a mirror? A rabbit? I was having tea with someone. It all seemed so urgent. Slowly whirling colors and shapes appear. It chips. It stares back,once more chirping merrily. it hopes forward and sings a short sweet tune. it then stares at you again. Birds do not often make requests of you. some water would do you wonders. You tuck what's left of the vial into your pocket. The bird flutters its wings. The bird flies away ,leaving you alone in  the woods.The rivers flows towards dense trees. Luckily for you a guard at the gate spots you and rushes to your aid. Luckily you had a drop of that potion of rejuvenation. To have such a thing in your pocket. I am trained to know your face inside out,although not really the inside of it. In the morning, you will ask the guard to take you to your nanny. It seems like the logical place to start.You need you know what's behind the title. Heir of the heart kingdom."</t>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,15_1,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,36_1,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,57_3,105,106,107,104,104_2,79,80,81,82,83,84,85,85_3,130,131,132,133,133_1,134,135,135_2,138,139,139_1,110,111,112,113,114,115,116,117,117_2,150,151,152,153,154,154_2,158,159,160,160_3,155,156,157,157_1,161,162,162_2,163,164,165,165_1,170,171,172,172_1,173,174,175,176,177,177_1,178,179,179,179_2,183,184,185,186,187,188,189,189_2,199,200,201,202,203,204,205,193,194,195,196,197,198,198_2,260,261,262,263,264,264_2,457,458,459,460,460_1,453,454,455,456,456_1,461,462,462_2,466,467,467_2,489,490,491,492,493,494,495,496,497,498,499,500,501,502,503,</t>
-  </si>
-  <si>
-    <t>"Blackness. You're slowly waking from a dream. What was it about? It is already beginning to fade... Was there a mirror? A rabbit? I was having tea with someone... It all seemed so urgent! You try grasping for details, to try and hold onto the dream for just a little bit longer. Fading. It slips through your fingers and disappears. Like dreams often do. Slowly, whirling colors and shapes appear. You awake, head reeling, to see a small bird sitting on your chest. It chirps. Speak to the bird Hello, you say. It chirps merrily, bobbing its head. You must have pleased it. Your stomach growls. The little bird shoots off into the woods. An untimely end to your budding friendship. You realize that you're starving. When's the last time you ate? Moments later, your bird friend returns. This time, it drops a beakful of berries into your lap and chirps at you again. Are these for me? you ask. You feel silly about thanking a bird. You decide to do it anyway before popping some of the berries into your mouth. They're sweet and surprisingly filling. There's even a few left over to save for later. You slip them into your pocket. You start to feel a bit better. You glance at the small bird again. It stares back, once more chirping merrily. It hops forward and sings a short sweet tune. It then stares at you again. Repeat tune You get the feeling that it is asking you for something. Bird's don't often make requests of you... You try to repeat the bird's tune back to it. Maybe that's the place to start? The hoarseness of your voice scares yourself and the little bird! Oh dear! You're parched. You're not much of a singer, but you're not that terrible. Some water would do you wonders. The bird hops away and returns, moments later, with a small glass vial of what looks like water. You take the tiniest sip. It's faintly fragrant and immediately makes you feel much better. You tuck what's left of the vial into your pocket. You clear your throat and try repeating the bird's tune again. The bird flutters its wings. Yes! Yes! Very good, very good! it sings. It then flies to the nearest branch. Come along! We've much to disgust. Did I say the right word then? No, it's discuss. Oh, of course! Do forgive me. Humanology is more my field. For example, I know you are a child by human standards, correct? No The bird ruffles its feathers. Have you looked at yourself recently? You look yourself over and, lo ...you really are a child. Weird. I knew it. I'm a professor you know. Rarely wrong, always right....except for when I'm wrong, but that's rare. What is your name? Dr. Peeps. Not to be confused with Dr. Peeps the younger. Or Dr. Peeps the fatter. Or Dr. Peeps the slightly cross-eyed. There's a lot of Dr. Peeps about. Common name amongst the birds. Easy to pronouce for the...*mouthes* non-talkers. I'm guessing you're smarter then. Not necessarily...but yes. He puffs up his chest proudly. Then you can tell me where I am? This is Tall Wood in the northeastern corner of Wonderland. Most animals can talk, some can't. Some can but don't bother, and some can't but try anyway. Anyway, if you head southwest, you can reach the Heart Kingdom. A long walk, mind you, but a wonderful city. By heading just south of here, you may find the village of Duchard, ruled by a most beautiful duchess. Close but quiet. What is it you're looking for? Some answers. To which questions? You have so many. It's impossible to answer them all. I'd suggest finding a cat then. Beastly, cunning things but they have an expansive knowledge of the world. Not a fan of cats? The bird shivers. It doesn't look like it wants to talk about that. You continue. Where do I find a cat? Oh, you do not find cats. They find you. You'll meet one when it wants to be met, and vice versa. Vice Versa? When you want to meet it, it will meet you. Before you have chance to insist that you want to meet it now, the bird carries  So, what else are you looking for? I'm simply not sure. If you don't know then it doesn't matter where you go, to paraphrase the cats. The bird pulls a disgusted face. Personally, I'd head for Duchard first and get yourself prepared. Prepared for what? Travel, my dear! You can't stay in one place if you want to get to another. That's logic! Tell me about Duchard. Duchard is a quiet but thriving village, ruled by a beautiful duchess. Not many people enter, so folk tend to be cautious and shy. However, they are kind enough. The duchess wouldn't allow unkindness or unwelcoming personalities or any kind of 'un' really. It's a short walk of about twenty minutes. Tell me about the Heart Kingdom. The Heart Kingdom is a city that surrounds the Heart Castle, where the Heart family live. Rather 'Hearty' if you ask me. Rather 'Hearty' if you ask me. Go on. It is the capital of Wonderland. We are ruled by Queen Nona Heart, a... The bird looks around before  Fat, old cow who does nothing but send folk to jail when they bug her. You're not sure why, but you feel slightly offended. He  It's a good half-day walk I'd imagine. I must say, you look simply ragged. You should rest up first in Duchard. I'll go to Duchard then. It's the wisest option, the bird cheeps. This way. You follow this bird through the woods. Soon things become familiar. The bread and butterflies, the caterpillars, the smell of fresh toadstools. It's soon apparent that you're not a stranger to the land as a whole, just to this place. As you are pondering, you come to the realisation that the bird has flown off, leaving you alone. The woods go on for a good while before you stumble upon a village. There is a  'DUCHARD'. You venture into the village. It is very dark now, and most of the lights are out, except one. You knock, and an old man answers. He stares at you for a good while, examining every detail of your face. I'm sorry to bother you but may I come in? He steps aside to allow you in. The room is warm, and you sit by the fire. You thank him for his kindness. However, he does not speak a word. He simply continues to stare at you. Is there anything wrong? Wrong? No, no. Simply...well, it's you. We don't often meet royalty. Royalty? He looks at you confused. You're.....You're Irascile Heart. The heir of the Heart Kingdom. Finally, you have awoken after many years! Who? Many years ago, Queen Nora of Hearts ordered that you were to be put to sleep until you were old enough to rule. Rumours that your governess made the potion too weak on purpose so that you may come back earlier spread like wild fire, but I had always brushed them off as myths, idle gossip, and yet, here you are! This is so strange. I feel faint. Would you care for some tea? he asks. I have fresh bread and jam too. Yes please. The old man toddles off. This is all so surreal. An heir? You? You are remembering now. Faint images of childhood. Names. Mary Ann. Phrenesis. But who did these names belong to? You ask the old man if you can stay the night and he allows it. He tries to give up his bed for you, but you won't allow it. Instead you sleep in his armchair. Tomorrow, you begin your journey to seek answers. To see if you can live up to this  Heir of the Heart Kingdom."</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "I awoke from a dream with a bird called \"Dr. Peeps\" on my chest. He brought me berries for food a a little vial of water. He sang at me and I sang back he then started to talk. He told me about Duchard with the beautiful Duchess, cats and Heart Town, belonging to the Hearts Family and ruled by the Queen. I went to Duchard and the bird left after a while. It was dark and there was only one light on. I knocked at the door and an old man let me in , told me that I was Irascine Heart and I had been put to sleep by the Queen until I was old enough to rule. He let me sleep the night in his armchair."</t>
   </si>
   <si>
@@ -239,13 +197,55 @@
     <t xml:space="preserve"> "It starts with the word 'blackness'. I'm waking from a dream which is already fading from memory. When i come around I see a bird on my chest. The bird tweets at me and i say helllo. The bird flies off which appears to be the end of our interaction but the bird returns shortly with some berries. I ask \"are they for me\"? and feel slightly silly for thanking a bird. I eat the berries which i find to be surprisingly filling and even have some to save for later. I seem to slightly anger the bird it sings and eventually decide to hum the tune back which seems to improve the bird's mood. I ask where I am and although the bird seems surprised i don't know explains I am in Wonderland. The bird asks what i intend to do. i say that I'm simply not sure. The bird suggests that  i travel and explains that the village of Duchard is a nice, quiet place to rest and is run by a beautiful princess who doesn't allow unkindness in her village and doesn't really allow 'un' of any kind really. The bird explains that the village doesn't receive many visitors and that the villagers tend to be quiet but not unfriendly as the Duchess wouldn't allow it. The bird also mentions that the Heart Kingdom is a lot further away and is the capital of Wonderland. I decide to head to Duchard and the bird points its wing to indicate the way and flies in that direction too for a while. The village is a 20 minute walk and on arrival i find just one light on at a house and knock on the door.The door is answered by an elderly man who just looks at me. I ask if i can come in. He lets me so so without saying a word. I take a seat and still he says nothing. I ask if anything is wrong? Now he speaks and confirms that nothing is wrong but that he just can't believe that a member of the royal family is in his home. I'm confused by this and tell him I don't think I am. He assures me that I am and that he is a big admirer of the royal family calling it 'his passion' and insists I am, being the heir to the throne with the name of Idecris (or something similar!). He asks if i want to have something to eat, I can't recall what was offered, maybe tea and cake!? I accept by saying yes please as opposed to just yes. Also when i went into his house i asked and didn't just barge my way in. I ask if i can stay the night and despite being offered the bed insist that sleeping in the armchair will be fine."</t>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,15_1,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,36_1,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,57_1,63,64,65,66,66_1,72,73,74,75,76,76_1,226,227,228,229,230,230_1,232,233,234,235,236,237,237_1,371,372,373,374,375,376,377,378,379,380,381,382,382_1,383,384,385,385_1,401,402,403,404,405,406,407,408,409,410,411,412,413,414,415,416,417,418,419,420,421,422,423,424,425,426,427,428,428_1,240,241,242,243,244,245,246,247,247_1,429,430,431,432,432_1,433,434,435,436,436_1,437,438,439,440,441,442,443,444,445,446,446_2,457,458,459,460,460_1,453,454,455,456,456_1,461,462,462_1,463,464,465,466,467,467,467_1,476,477,478,479,480,481,482,483,484,485,486,487,488,</t>
-  </si>
-  <si>
-    <t>"Blackness. You're slowly waking from a dream. What was it about? It is already beginning to fade... Was there a mirror? A rabbit? I was having tea with someone... It all seemed so urgent! You try grasping for details, to try and hold onto the dream for just a little bit longer. Fading. It slips through your fingers and disappears. Like dreams often do. Slowly, whirling colors and shapes appear. You awake, head reeling, to see a small bird sitting on your chest. It chirps. Speak to the bird Hello, you say. It chirps merrily, bobbing its head. You must have pleased it. Your stomach growls. The little bird shoots off into the woods. An untimely end to your budding friendship. You realize that you're starving. When's the last time you ate? Moments later, your bird friend returns. This time, it drops a beakful of berries into your lap and chirps at you again. Are these for me? you ask. You feel silly about thanking a bird. You decide to do it anyway before popping some of the berries into your mouth. They're sweet and surprisingly filling. There's even a few left over to save for later. You slip them into your pocket. You start to feel a bit better. You glance at the small bird again. It stares back, once more chirping merrily. It hops forward and sings a short sweet tune. It then stares at you again. Repeat tune You get the feeling that it is asking you for something. Bird's don't often make requests of you... You try to repeat the bird's tune back to it. Maybe that's the place to start? The hoarseness of your voice scares yourself and the little bird! Oh dear! You're parched. You're not much of a singer, but you're not that terrible. Some water would do you wonders. The bird hops away and returns, moments later, with a small glass vial of what looks like water. You take the tiniest sip. It's faintly fragrant and immediately makes you feel much better. You tuck what's left of the vial into your pocket. You clear your throat and try repeating the bird's tune again. The bird flutters its wings. Yes! Yes! Very good, very good! it sings. It then flies to the nearest branch. Come along! We've much to disgust. Did I say the right word then? Birds can talk? How rude! Speciesist! The bird ruffles its feathers. How ludicrous. How ludicrous. Oh be quiet! Well, I never! The bird flies away, leaving you alone in the woods. Well done. It's getting dark. Now what? Rest until morning It would be easier to navigate in the light. You curl up by a tree and try to sleep. The night is bitter and the wind howls in your ears....that was the wind, yes? Surely....no....no, you're just paranoid. It's nothing......isn't it? Stay there It's nothing. You curl back up to sleep. You begin to dream. You're running. She's going to find you if you don't hide! Quick, left or right? Quick, left or right? Left! You dash left, giggling away. You're giggling so much, you don't see where you're go- OUCH! You run right into Mary Ann, your best friend. You laugh together quietly until you hear, Ready or not, here I come! Mary Ann has run off. You head back to the right. The nettles are pricking your ankles, but you hardly care. You're having too much fun! Suddenly you stumble. As you pick yourself up, you see something on a thick tree trunk. Is that....is that a little door? It's the perfect size for a little child like you, plus you need a hiding place. Open it and hide inside It's dark behind the door. Incredibly quiet, which is strange as you're certain sound travels through wood. Perhaps this was a bad idea. Go back through the door You try to turn the handle, but it's locked. How did that happen? Still, you've got no choice. You begin to walk further into the tree. For a rather thin trunk, this place went on for a good few steps. All of a sudden, light floods the room from above. High above, you can see blue sky. Curiousity gets the best of you, and you begin to climb up towards it. Higher and higher you go, soon oblivious to why you were there in the first place. Eventually, you reach the top. The sweet gentle scent of daisy wafts up your nose. You look around at the world up top. It's brighter and clearer than  a field full of daisies. The hole you are in is located just beneath an old oak tree. In the distance you see children, like you but dressed in white, playing. You see an older gentleman, in white also. He calls to the  Now now, come along. I'd say you all were the loudest children in England! Now let's have you in! The children follow him. You want to meet them. You wanted to explore what was up the rabbit hole. This 'England.' You pull yourself slowly out of the-   A hand grabs your leg. You're falling down, down, down the rabbit hole. Further and further and further and-  You wake up. It's quiet..... except for the heavy breathing on your neck. You leap up with a start to see the most hideous black hound barking at you. RUN! You're sprinting through the woods. You can hear snarling behind you. You dare not turn around. You see ahead a village. Oh god, please let someone be a friend! You knock frantically at the door of the first house you find. An elderly man opens the door. Oddly, he stares at you, as though taking in every detail of your face. Please let me in! There are dogs after me! Your words shake him from his reverie. He sees the hound behind you, fast-approaching. A hound! You must have the scent of houndberries on you! he yelled. Ravenous hounds will track the scent of those berries for miles! Houndberries? What berries? Ah! You almost forgot! You still have some of the berries Dr. Peeps gave you. They're in your pocket! Maybe you can throw them away to distract the hound! Throw the berries into the woods! Without hesitation, you take the remaining berries from your pocket. With all your strength, you throw them far away from the house and into the woods. As if pulled by a string, the hound jerks away and runs in the direction of the berries. The barking fades as it bounds into the woods. You let out a sigh. What a relief! With the hound distracted, you turn to the old man for shelter. He steps aside, allowing you in. He puts a plank across the door, and the sound of dogs soon fades away. You thank the man, yet he continues to stare at you. Is there something wrong? Wrong? No, no. Simply...well, it's you. We don't often meet royalty. Royalty? He looks at you confused. You're.....You're Irascile Heart. The heir of the Heart Kingdom. Finally, you have awoken after many years! Who? Many years ago, Queen Nora of Hearts ordered that you were to be put to sleep until you were old enough to rule. Rumours that your governess made the potion too weak on purpose so that you may come back earlier spread like wild fire, but I had always brushed them off as myths, idle gossip, and yet, here you are! They left me in alone in the woods? No. You were left sealed in your room. That is the extent of my knowledge. Would you care for some tea? he asks. I have fresh bread and jam too. I have fresh bread and jam too. Yes. The old man toddles to the shelves. You could get use to this. The power. The respect. You are remembering now. Faint images of childhood. Names. Mary Ann. Phrenesis. But who did these names belong to? You decide to stay the night in the old man's house, taking his bed while he sleeps on the floor. Tomorrow, you begin your journey to seek answers. To seek your  Heir of the Heart Kingdom."</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "I woke up aware that I was emerging froma dream and I`m trying to recall what is was about. Then I hear a noise and a bird lands on my chest and sings to me and brings me berries. I eat the berries which are tasty and satisfying. the bird then begins to talk to me and flies off in the woods. I follow the bird into the woods and fall down a rabbit hole. I see a bright scene with children and an old man playing and I want to join them. Then I fall down a big hole and meet an old man who realises I am a Royal Highness. I enjo the respect and dignity of that and the old man fetches me something to eat."</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,15_3,231_1,93,94,95,76,76_2,193,194,195,196,197,198,198_2,260,261,262,263,264,264_1,447,448,448_1,449,450,450_1,453,454,455,456,456_2,468,469,470,471,471_2,466,467,467_2,489,490,491,492,493,494,495,496,497,498,499,500,501,502,503,</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,15_1,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,36_1,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,57_1,63,64,65,66,66_1,72,73,74,75,76,76_1,226,227,228,229,230,230_1,232,233,234,235,236,237,237_1,371,372,373,374,375,376,377,378,379,380,381,382,382_1,383,384,385,385_1,401,402,403,404,405,406,407,408,409,410,411,412,413,414,415,416,417,418,419,420,421,422,423,424,425,426,427,428,428_1,240,241,242,243,244,245,246,247,247_1,429,430,431,432,432_1,433,434,435,436,436_1,437,438,439,440,441,442,443,444,445,446,446_1,447,448,448_1,449,450,450_1,453,454,455,456,456_1,461,462,462_1,463,464,465,466,467,467_1,476,477,478,479,480,481,482,483,484,485,486,487,488,</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,15_3,231_1,93,94,95,76,76_3,265,266,267,267_3,268,269,270,270_2,193,194,195,196,197,198,198_2,260,261,262,263,264,264_2,457,458,459,460,460_1,453,454,455,456,456_2,468,469,470,471,471_1,466,467,467_2,489,490,491,492,493,494,495,496,497,498,499,500,501,502,503,</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,15_1,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,36_2,58,59,59_3,69,70,70_1,71,71_1,63,64,65,66,66_2,77,78,78_1,79,80,81,82,83,84,85,85_1,108,109,110,111,112,113,114,115,116,117,117_2,150,151,152,153,154_1,154,155,156,157,157_2,163,164,165,165_1,170,171,172,172_2,178,179,179_2,183,184,185,186,187,188,189,189_2,199,200,201,202,203,204,205,193,194,195,196,197,198,198_2,260,261,262,263,264,264_2,457,458,459,460,460_1,453,454,455,456,456_2,468,469,470,471,471_2,466,467,467_2,489,490,491,492,493,494,495,496,497,498,499,500,501,502,503,</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,15_1,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,36_1,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,57_1,63,64,65,66,66_2,77,78,78_1,79,80,81,82,83,84,85,85_3,130,131,132,133,133_2,118,119,120,121,122,123,124,125,126,127,128,129,110,111,112,113,114,115,116,117,117_4,163,164,165,165_1,170,171,172,172_2,178,179,179_2,183,184,185,186,187,188,189,189_2,199,200,201,202,203,204,205,193,194,195,196,197,198,198_1,248,249,250,251,252,252_1,253,254,255,256,256_1,453,454,455,456,456_3,472,473,474,475,466,467,467_2,489,490,491,492,493,494,495,496,497,498,499,500,501,502,503,</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,15_2,34,35,36,36_1,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,57_1,63,64,65,66,66_1,72,73,74,75,76,76_3,265,266,267,267_1,216,217,218,219,220,221,222,223,224,224_2,273,274,275,276,277,278,279,280,281,281_1,282,283,284,285,286,287,288,289,289_1,290,291,292,293,294,294_1,295,296,297,298,299,300,300_1,301,302,303,304,305,305_1,306,307,308,309,310,310_2,312,313,314,315,315_3,328,329,330,331,332,333,334,335,336,336_1,324,325,326,327,327_2,345,346,347,348,349,350,351,352,353,354,355,356,</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,15_1,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,36_1,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,57_3,105,106,107,104,104_2,79,80,81,82,83,84,85,85_3,130,131,132,133,133_1,134,135,135_2,138,139,139_1,110,111,112,113,114,115,116,117,117_2,150,151,152,153,154,154_2,158,159,160,160_3,155,156,157,157_1,161,162,162_2,163,164,165,165_1,170,171,172,172_1,173,174,175,176,177,177_1,178,179,179_2,183,184,185,186,187,188,189,189_2,199,200,201,202,203,204,205,193,194,195,196,197,198,198_2,260,261,262,263,264,264_2,457,458,459,460,460_1,453,454,455,456,456_1,461,462,462_2,466,467,467_2,489,490,491,492,493,494,495,496,497,498,499,500,501,502,503,</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,15_1,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,36_1,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,57_1,63,64,65,66,66_1,72,73,74,75,76,76_1,226,227,228,229,230,230_1,232,233,234,235,236,237,237_1,371,372,373,374,375,376,377,378,379,380,381,382,382_1,383,384,385,385_1,401,402,403,404,405,406,407,408,409,410,411,412,413,414,415,416,417,418,419,420,421,422,423,424,425,426,427,428,428_1,240,241,242,243,244,245,246,247,247_1,429,430,431,432,432_1,433,434,435,436,436_1,437,438,439,440,441,442,443,444,445,446,446_2,457,458,459,460,460_1,453,454,455,456,456_1,461,462,462_1,463,464,465,466,467,467_1,476,477,478,479,480,481,482,483,484,485,486,487,488,</t>
+  </si>
+  <si>
+    <t>"Blackness. You're slowly waking from a dream. What was it about? It is already beginning to fade... Was there a mirror? A rabbit? I was having tea with someone... It all seemed so urgent! You try grasping for details, to try and hold onto the dream for just a little bit longer. Fading. It slips through your fingers and disappears. Like dreams often do. Slowly, whirling colors and shapes appear. You awake, head reeling, to see a small bird sitting on your chest. It chirps. Try to pet it Get up and look around You pull yourself up. You appear to be in some sort of woodland area, surrounded by mushrooms and small flowers. The sun is just beginning to set. Now what? Walk around until you find shelter The woods go on for a good while before you stumble upon a village. There is a  'DUCHARD'. You venture into the village. It is very dark now, and most of the lights are out, except one. You knock, and an old man answers. He stares at you for a good while, examining every detail of your face. I'm sorry to bother you but may I come in? He steps aside to allow you in. The room is warm, and you sit by the fire. You thank him for his kindness. However, he does not speak a word. He simply continues to stare at you. Remain quiet He sits down in an arm chair across from you and raises a hand to his mouth. I...I simply don't believe it. What is it? Well...well it's just that...well, you.... He quickly gets up and bows. Why are you bowing? He looks at you confused. You're.....You're Irascile Heart. The heir of the Heart Kingdom. Finally, you have awoken after many years! No, I'm not. At least, I don't think I am. I know you are. I may be an elderly gentleman, but I'd know your face anywhere. The royal family are my passion. I have devoted my life to learning all I can but never did I imagine meeting a royal! And I never imagined how hungry I could be. Would you care for some tea? he asks. I have fresh bread and jam too. Yes please. The old man toddles off. This is all so surreal. An heir? You? You are remembering now. Faint images of childhood. Names. Mary Ann. Phrenesis. But who did these names belong to? You ask the old man if you can stay the night and he allows it. He tries to give up his bed for you, but you won't allow it. Instead you sleep in his armchair. Tomorrow, you begin your journey to seek answers. To see if you can live up to this  Heir of the Heart Kingdom."</t>
+  </si>
+  <si>
+    <t>"Blackness. You're slowly waking from a dream. What was it about? It is already beginning to fade... Was there a mirror? A rabbit? I was having tea with someone... It all seemed so urgent! You try grasping for details, to try and hold onto the dream for just a little bit longer. Fading. It slips through your fingers and disappears. Like dreams often do. Slowly, whirling colors and shapes appear. You awake, head reeling, to see a small bird sitting on your chest. It chirps. Speak to the bird Hello, you say. It chirps merrily, bobbing its head. You must have pleased it. Your stomach growls. The little bird shoots off into the woods. An untimely end to your budding friendship. You realize that you're starving. When's the last time you ate? Moments later, your bird friend returns. This time, it drops a beakful of berries into your lap and chirps at you again. Are these for me? you ask. You feel silly about thanking a bird. You decide to do it anyway before popping some of the berries into your mouth. They're sweet and surprisingly filling. There's even a few left over to save for later. You slip them into your pocket. You start to feel a bit better. You glance at the small bird again. It stares back, once more chirping merrily. It hops forward and sings a short sweet tune. It then stares at you again. Repeat tune You get the feeling that it is asking you for something. Bird's don't often make requests of you... You try to repeat the bird's tune back to it. Maybe that's the place to start? The hoarseness of your voice scares yourself and the little bird! Oh dear! You're parched. You're not much of a singer, but you're not that terrible. Some water would do you wonders. The bird hops away and returns, moments later, with a small glass vial of what looks like water. You take the tiniest sip. It's faintly fragrant and immediately makes you feel much better. You tuck what's left of the vial into your pocket. You clear your throat and try repeating the bird's tune again. The bird flutters its wings. Yes! Yes! Very good, very good! it sings. It then flies to the nearest branch. Come along! We've much to disgust. Did I say the right word then? Birds can talk? How rude! Speciesist! The bird ruffles its feathers. How ludicrous. Oh be quiet! Well, I never! The bird flies away, leaving you alone in the woods. Well done. It's getting dark. Now what? Rest until morning It would be easier to navigate in the light. You curl up by a tree and try to sleep. The night is bitter and the wind howls in your ears....that was the wind, yes? Surely....no....no, you're just paranoid. It's nothing......isn't it? Stay there It's nothing. You curl back up to sleep. You begin to dream. You're running. She's going to find you if you don't hide! Quick, left or right? Left! You dash left, giggling away. You're giggling so much, you don't see where you're go- OUCH! You run right into Mary Ann, your best friend. You laugh together quietly until you hear, Ready or not, here I come! Mary Ann has run off. You head back to the right. The nettles are pricking your ankles, but you hardly care. You're having too much fun! Suddenly you stumble. As you pick yourself up, you see something on a thick tree trunk. Is that....is that a little door? It's the perfect size for a little child like you, plus you need a hiding place. Open it and hide inside It's dark behind the door. Incredibly quiet, which is strange as you're certain sound travels through wood. Perhaps this was a bad idea. Go back through the door You try to turn the handle, but it's locked. How did that happen? Still, you've got no choice. You begin to walk further into the tree. For a rather thin trunk, this place went on for a good few steps. All of a sudden, light floods the room from above. High above, you can see blue sky. Curiousity gets the best of you, and you begin to climb up towards it. Higher and higher you go, soon oblivious to why you were there in the first place. Eventually, you reach the top. The sweet gentle scent of daisy wafts up your nose. You look around at the world up top. It's brighter and clearer than  a field full of daisies. The hole you are in is located just beneath an old oak tree. In the distance you see children, like you but dressed in white, playing. You see an older gentleman, in white also. He calls to the  Now now, come along. I'd say you all were the loudest children in England! Now let's have you in! The children follow him. You want to meet them. You wanted to explore what was up the rabbit hole. This 'England.' You pull yourself slowly out of the-   A hand grabs your leg. You're falling down, down, down the rabbit hole. Further and further and further and-  You wake up. It's quiet..... except for the heavy breathing on your neck. You leap up with a start to see the most hideous black hound barking at you. RUN! You're sprinting through the woods. You can hear snarling behind you. You dare not turn around. You see ahead a village. Oh god, please let someone be a friend! You knock frantically at the door of the first house you find. An elderly man opens the door. Oddly, he stares at you, as though taking in every detail of your face. Please let me in! There are dogs after me! Your words shake him from his reverie. He sees the hound behind you, fast-approaching. A hound! You must have the scent of houndberries on you! he yelled. Ravenous hounds will track the scent of those berries for miles! Houndberries? What berries? Ah! You almost forgot! You still have some of the berries Dr. Peeps gave you. They're in your pocket! Maybe you can throw them away to distract the hound! Throw the berries into the woods! Without hesitation, you take the remaining berries from your pocket. With all your strength, you throw them far away from the house and into the woods. As if pulled by a string, the hound jerks away and runs in the direction of the berries. The barking fades as it bounds into the woods. You let out a sigh. What a relief! With the hound distracted, you turn to the old man for shelter. He steps aside, allowing you in. He puts a plank across the door, and the sound of dogs soon fades away. You thank the man, yet he continues to stare at you. Remain quiet He sits down in an arm chair across from you and raises a hand to his mouth. I...I simply don't believe it. What is it? Well...well it's just that...well, you.... He quickly gets up and bows. Why are you bowing? He looks at you confused. You're.....You're Irascile Heart. The heir of the Heart Kingdom. Finally, you have awoken after many years! Who? Many years ago, Queen Nora of Hearts ordered that you were to be put to sleep until you were old enough to rule. Rumours that your governess made the potion too weak on purpose so that you may come back earlier spread like wild fire, but I had always brushed them off as myths, idle gossip, and yet, here you are! They left me in alone in the woods? No. You were left sealed in your room. That is the extent of my knowledge. Would you care for some tea? he asks. I have fresh bread and jam too. Yes. The old man toddles to the shelves. You could get use to this. The power. The respect. You are remembering now. Faint images of childhood. Names. Mary Ann. Phrenesis. But who did these names belong to? You decide to stay the night in the old man's house, taking his bed while he sleeps on the floor. Tomorrow, you begin your journey to seek answers. To seek your  Heir of the Heart Kingdom."</t>
+  </si>
+  <si>
+    <t>"Blackness. You're slowly waking from a dream. What was it about? It is already beginning to fade... Was there a mirror? A rabbit? I was having tea with someone... It all seemed so urgent! You try grasping for details, to try and hold onto the dream for just a little bit longer. Fading. It slips through your fingers and disappears. Like dreams often do. Slowly, whirling colors and shapes appear. You awake, head reeling, to see a small bird sitting on your chest. It chirps. Try to pet it Get up and look around You pull yourself up. You appear to be in some sort of woodland area, surrounded by mushrooms and small flowers. The sun is just beginning to set. Now what? Follow where the bird went You trot after where you think the bird was headed and come to a river. There's no way of crossing as the current is strong. One way leads amongst dense trees, the other across barren land. Go back into the woods Perhaps that wasn't the best option. You go back to the clearing. It's getting darker and colder. Start looking for shelter The woods go on for a good while before you stumble upon a village. There is a  'DUCHARD'. You venture into the village. It is very dark now, and most of the lights are out, except one. You knock, and an old man answers. He stares at you for a good while, examining every detail of your face. I'm sorry to bother you but may I come in? He steps aside to allow you in. The room is warm, and you sit by the fire. You thank him for his kindness. However, he does not speak a word. He simply continues to stare at you. Is there anything wrong? Wrong? No, no. Simply...well, it's you. We don't often meet royalty. Royalty? He looks at you confused. You're.....You're Irascile Heart. The heir of the Heart Kingdom. Finally, you have awoken after many years! No, I'm not. At least, I don't think I am. I know you are. I may be an elderly gentleman, but I'd know your face anywhere. The royal family are my passion. I have devoted my life to learning all I can but never did I imagine meeting a royal! This is all a little much. Would you care for some tea? he asks. I have fresh bread and jam too. Yes please. The old man toddles off. This is all so surreal. An heir? You? You are remembering now. Faint images of childhood. Names. Mary Ann. Phrenesis. But who did these names belong to? You ask the old man if you can stay the night and he allows it. He tries to give up his bed for you, but you won't allow it. Instead you sleep in his armchair. Tomorrow, you begin your journey to seek answers. To see if you can live up to this  Heir of the Heart Kingdom."</t>
+  </si>
+  <si>
+    <t>"Blackness. You're slowly waking from a dream. What was it about? It is already beginning to fade... Was there a mirror? A rabbit? I was having tea with someone... It all seemed so urgent! You try grasping for details, to try and hold onto the dream for just a little bit longer. Fading. It slips through your fingers and disappears. Like dreams often do. Slowly, whirling colors and shapes appear. You awake, head reeling, to see a small bird sitting on your chest. It chirps. Speak to the bird Hello, you say. It chirps merrily, bobbing its head. You must have pleased it. Your stomach growls. The little bird shoots off into the woods. An untimely end to your budding friendship. You realize that you're starving. When's the last time you ate? Moments later, your bird friend returns. This time, it drops a beakful of berries into your lap and chirps at you again. Are these for me? you ask. You feel silly about thanking a bird. You decide to do it anyway before popping some of the berries into your mouth. They're sweet and surprisingly filling. There's even a few left over to save for later. You slip them into your pocket. You start to feel a bit better. You glance at the small bird again. It stares back, once more chirping merrily. It hops forward and sings a short sweet tune. It then stares at you again. Wait Oddly, the bird starts tapping a tiny claw against your chest. Hmph. it mutters in a high pitched tone. Did you just 'hmph'? Oh, I'M lacking in manners, am I? the bird chirps. It sighs and sings the same tune again. You're a talking bird. Yes, I am. Birds don't talk. How rude! Speciesist! The bird ruffles its feathers. How ludicrous. Sorry. I should think so! Think before you speak, child. I'm not a child! The bird ruffles its feathers. Have you looked at yourself recently? You look yourself over and, lo ...you really are a child. Weird. I knew it. I'm a professor you know. Rarely wrong, always right....except for when I'm wrong, but that's rare. You have a funny way of talking. And you have a funny way of looking! You've obviously offended the little bird, however he shakes it off and continues to  This is Tall Wood in the northeastern corner of Wonderland. Most animals can talk, some can't. Some can but don't bother, and some can't but try anyway. Anyway, if you head southwest, you can reach the Heart Kingdom. A long walk, mind you, but a wonderful city. By heading just south of here, you may find the village of Duchard, ruled by a most beautiful duchess. Close but quiet. What is it you're looking for? Some answers. To which questions? You have so many. It's impossible to answer them all. I'd suggest finding a cat then. Where do I find one? Beastly, cunning things but they have an expansive knowledge of the world. Oh, you do not find cats. They find you. You'll meet one when it wants to be met, and vice versa. Then I don't know what to do. If you don't know then it doesn't matter where you go, to paraphrase the cats. The bird pulls a disgusted face. Personally, I'd head for Duchard first and get yourself prepared. Prepared for what? Travel, my dear! You can't stay in one place if you want to get to another. That's logic! Tell me about the Heart Kingdom. The Heart Kingdom is a city that surrounds the Heart Castle, where the Heart family live. Rather 'Hearty' if you ask me. Go on. It is the capital of Wonderland. We are ruled by Queen Nona Heart, a... The bird looks around before  Fat, old cow who does nothing but send folk to jail when they bug her. You're not sure why, but you feel slightly offended. He  It's a good half-day walk I'd imagine. I must say, you look simply ragged. You should rest up first in Duchard. I'll go to Duchard then. It's the wisest option, the bird cheeps. This way. You follow this bird through the woods. Soon things become familiar. The bread and butterflies, the caterpillars, the smell of fresh toadstools. It's soon apparent that you're not a stranger to the land as a whole, just to this place. As you are pondering, you come to the realisation that the bird has flown off, leaving you alone. The woods go on for a good while before you stumble upon a village. There is a  'DUCHARD'. You venture into the village. It is very dark now, and most of the lights are out, except one. You knock, and an old man answers. He stares at you for a good while, examining every detail of your face. I'm sorry to bother you but may I come in? He steps aside to allow you in. The room is warm, and you sit by the fire. You thank him for his kindness. However, he does not speak a word. He simply continues to stare at you. Is there anything wrong? Wrong? No, no. Simply...well, it's you. We don't often meet royalty. Royalty? He looks at you confused. You're.....You're Irascile Heart. The heir of the Heart Kingdom. Finally, you have awoken after many years! No, I'm not. At least, I don't think I am. I know you are. I may be an elderly gentleman, but I'd know your face anywhere. The royal family are my passion. I have devoted my life to learning all I can but never did I imagine meeting a royal! And I never imagined how hungry I could be. Would you care for some tea? he asks. I have fresh bread and jam too. Yes please. The old man toddles off. This is all so surreal. An heir? You? You are remembering now. Faint images of childhood. Names. Mary Ann. Phrenesis. But who did these names belong to? You ask the old man if you can stay the night and he allows it. He tries to give up his bed for you, but you won't allow it. Instead you sleep in his armchair. Tomorrow, you begin your journey to seek answers. To see if you can live up to this  Heir of the Heart Kingdom."</t>
+  </si>
+  <si>
+    <t>"Blackness. You're slowly waking from a dream. What was it about? It is already beginning to fade... Was there a mirror? A rabbit? I was having tea with someone... It all seemed so urgent! You try grasping for details, to try and hold onto the dream for just a little bit longer. Fading. It slips through your fingers and disappears. Like dreams often do. Slowly, whirling colors and shapes appear. You awake, head reeling, to see a small bird sitting on your chest. It chirps. Speak to the bird Hello, you say. It chirps merrily, bobbing its head. You must have pleased it. Your stomach growls. The little bird shoots off into the woods. An untimely end to your budding friendship. You realize that you're starving. When's the last time you ate? Moments later, your bird friend returns. This time, it drops a beakful of berries into your lap and chirps at you again. Are these for me? you ask. You feel silly about thanking a bird. You decide to do it anyway before popping some of the berries into your mouth. They're sweet and surprisingly filling. There's even a few left over to save for later. You slip them into your pocket. You start to feel a bit better. You glance at the small bird again. It stares back, once more chirping merrily. It hops forward and sings a short sweet tune. It then stares at you again. Repeat tune You get the feeling that it is asking you for something. Bird's don't often make requests of you... You try to repeat the bird's tune back to it. Maybe that's the place to start? The hoarseness of your voice scares yourself and the little bird! Oh dear! You're parched. You're not much of a singer, but you're not that terrible. Some water would do you wonders. The bird hops away and returns, moments later, with a small glass vial of what looks like water. You take the tiniest sip. It's faintly fragrant and immediately makes you feel much better. You tuck what's left of the vial into your pocket. You clear your throat and try repeating the bird's tune again. The bird flutters its wings. Yes! Yes! Very good, very good! it sings. It then flies to the nearest branch. Come along! We've much to disgust. Did I say the right word then? Birds can talk? How rude! Speciesist! The bird ruffles its feathers. How ludicrous. Sorry. I should think so! Think before you speak, child. I'm not a child! The bird ruffles its feathers. Have you looked at yourself recently? You look yourself over and, lo ...you really are a child. Weird. I knew it. I'm a professor you know. Rarely wrong, always right....except for when I'm wrong, but that's rare. What is your name? Dr. Peeps. Not to be confused with Dr. Peeps the younger. Or Dr. Peeps the fatter. Or Dr. Peeps the slightly cross-eyed. Where am I? It gives you a quizzical look. How can you not know? How curious. Do you have amnesia? Have you sleepwalked? Are you dreaming? Am I dreaming? What is dreaming? How can- Oh. Pardon me. I'm getting all twisted and turned. Allow me to  This is Tall Wood in the northeastern corner of Wonderland. Most animals can talk, some can't. Some can but don't bother, and some can't but try anyway. Anyway, if you head southwest, you can reach the Heart Kingdom. A long walk, mind you, but a wonderful city. By heading just south of here, you may find the village of Duchard, ruled by a most beautiful duchess. Close but quiet. What is it you're looking for? I'm simply not sure. If you don't know then it doesn't matter where you go, to paraphrase the cats. The bird pulls a disgusted face. Personally, I'd head for Duchard first and get yourself prepared. Prepared for what? Travel, my dear! You can't stay in one place if you want to get to another. That's logic! Tell me about the Heart Kingdom. The Heart Kingdom is a city that surrounds the Heart Castle, where the Heart family live. Rather 'Hearty' if you ask me. Go on. It is the capital of Wonderland. We are ruled by Queen Nona Heart, a... The bird looks around before  Fat, old cow who does nothing but send folk to jail when they bug her. You're not sure why, but you feel slightly offended. He  It's a good half-day walk I'd imagine. I must say, you look simply ragged. You should rest up first in Duchard. I'll go to Duchard then. It's the wisest option, the bird cheeps. This way. You follow this bird through the woods. Soon things become familiar. The bread and butterflies, the caterpillars, the smell of fresh toadstools. It's soon apparent that you're not a stranger to the land as a whole, just to this place. As you are pondering, you come to the realisation that the bird has flown off, leaving you alone. The woods go on for a good while before you stumble upon a village. There is a  'DUCHARD'. You venture into the village. It is very dark now, and most of the lights are out, except one. You knock, and an old man answers. He stares at you for a good while, examining every detail of your face. He stares at you for a good while, examining every detail of your face. Oh, move old-timer! Push past him You push the old man into the wall. He coughs and splutters. You quickly shut the door. The old man holds his heart and toddles across the room into a chair. This is all too much for me at this time of night! You should have moved. The old man's face drops. He looks so disappointed. I am truly sorry, your highness. I shall improve upon my speed in the future. Highness? He looks at you confused. You're.....You're Irascile Heart. The heir of the Heart Kingdom. Finally, you have awoken after many years! Yes I am. I knew it, I knew it! He seems very merry. I should tell you, I am a huge fan of the royal family! Suddenly, a loud growl comes from your stomach. Would you care for some tea? he asks. I have fresh bread and jam too. Yes please. The old man toddles off. This is all so surreal. An heir? You? You are remembering now. Faint images of childhood. Names. Mary Ann. Phrenesis. But who did these names belong to? You ask the old man if you can stay the night and he allows it. He tries to give up his bed for you, but you won't allow it. Instead you sleep in his armchair. Tomorrow, you begin your journey to seek answers. To see if you can live up to this  Heir of the Heart Kingdom."</t>
+  </si>
+  <si>
+    <t>"Blackness. You're slowly waking from a dream. What was it about? It is already beginning to fade... Was there a mirror? A rabbit? I was having tea with someone... It all seemed so urgent! You try grasping for details, to try and hold onto the dream for just a little bit longer. Fading. It slips through your fingers and disappears. Like dreams often do. Slowly, whirling colors and shapes appear. You awake, head reeling, to see a small bird sitting on your chest. It chirps. Stare at it It stares back, once more chirping merrily. It hops forward and sings a short sweet tune. It then stares at you again. Repeat tune You get the feeling that it is asking you for something. Bird's don't often make requests of you... You try to repeat the bird's tune back to it. Maybe that's the place to start? The hoarseness of your voice scares yourself and the little bird! Oh dear! You're parched. You're not much of a singer, but you're not that terrible. Some water would do you wonders. The bird hops away and returns, moments later, with a small glass vial of what looks like water. You take the tiniest sip. It's faintly fragrant and immediately makes you feel much better. You tuck what's left of the vial into your pocket. You clear your throat and try repeating the bird's tune again. The bird flutters its wings. Yes! Yes! Very good, very good! it sings. It then flies to the nearest branch. Come along! We've much to disgust. Did I say the right word then? Birds can talk? How rude! Speciesist! The bird ruffles its feathers. How ludicrous. Oh be quiet! Well, I never! The bird flies away, leaving you alone in the woods. Well done. It's getting dark. Now what? Follow where the bird went You trot after where you think the bird was headed and come to a river. There's no way of crossing as the current is strong. One way leads amongst dense trees, the other across barren land. Go towards the trees The river flows towards dense trees. You follow it for a good long while. You're tired and hungry, but still you continue through the night. Something in your gut drove you to do so. Soon, you reach a small, white brick bridge. Just over the bridge, a good mile away is a gigantic castle wall and iron gate. There is a small chance of making it before you pass out. Alternatively, there is shelter from the wind beneath the bridge. You could sleep there a while to regain your energy. Walk on to towards the gate A great urge to continue forces you to venture on. Nearly there, only about five more minutes until you reach the gate, however, your body gives up on you and you drop to your knees. Luckily for you, a guard at the gate spots you and rushes to your aid. Next thing you know, you're lying in an uncomfortable bed, head reeling. You just had the strangest dream about running, cat-human hybrids, small doors and 'going up the rabbit hole'. You brush it off however and look around. There are two twin boys at a table to your left. One is shaking about a rattle while the other watches with a jealous look upon his face. To your right, the guard that helped you is putting on his coat with his back to you. Excuse me, young sirs... Both boys spin around to look at you. DAD! shouts one. FATHER! shouts the other. DATHER! FAD! they both shout. Oh thank goodness! The guard turns around and smiles. You're awake, your highness! Huh? You were in a disastrous state, if I may say so. Luckily you had a drop of that potion of rejuvenation tucked away. To have such a thing in your pocket! It's quite rare, mind you! I don't know what I could have done without it! But I don't have any potion on me. The guard shows you a small empty vial. The exact one Dr. Peeps gave you to soothe your throat! You say it's just water. The guard replies Bah! Common misconception! The potion of rejuvenation looks and tastes exactly like water. Both are refreshing, but only one is rejuvenating! How can you tell them apart? The guard smiles.  But I'm a guard! It's my job to tell the good things from the bad things. The bad things from the good things, too! Also, it has a unique smell, your highness. Faint but sweet! Who are you? Oh, of course. How rude of me. I am Tweedle, and these are my sons, Dee and Dum. One stands up, I'm Dee, he's Dum. The other stands up, Cherrywise, I'm Dum, he's Dee. Wait, did you say 'your highness'? Why, yes! You are Irascile, heir to the Heart Kingdom throne. I'm trained to know your face inside out, although not really the inside of it. There'd be no point in that. What? Oh, of course. How rude of me! The guard exclaims. You must have very little memory of what has happened. I shall  Many years ago, Queen Nora of Hearts ordered that you were to be put to sleep until you were old enough to rule. However, your governess made the potion weak so that you may awake earlier and, well, here you are. The two boys jump up and run to your side wittering, Here you are! You are here! Are you here? You here are! I see. But now you see, I am faced with a problem, says the guard. By the queen's rule, you are not to have left your room until you are 25 and, if you would pardon me, you look too young to be so. Now I should take you back to your room and reseal you in until it is time (How you even escaped is beyond me), but my heart tells me to harbour you here and let you live your teenaged years. You obviously don't want the first option, but then the kind guard might get in serious trouble for breaking the law... Please let me stay here! Of course, your highness. You shall stay with me and the boys under an alias...um...ah! My second cousin, Ciel. So you stay with Tweedle and his sons, Dee and Dum. Still, questions swirl about your head. What happened to me? You decide you can't live this way forever. Eventually you will be of age, and they will try to find you. No. You need to start unravelling these mysteries now. In the morning, you will ask the guard to take you to your nanny. It seems like the logical place to start. You need you know what's behind the  Heir of the Heart Kingdom."</t>
+  </si>
+  <si>
+    <t>"Blackness. You're slowly waking from a dream. What was it about? It is already beginning to fade... Was there a mirror? A rabbit? I was having tea with someone... It all seemed so urgent! You try grasping for details, to try and hold onto the dream for just a little bit longer. Fading. It slips through your fingers and disappears. Like dreams often do. Slowly, whirling colors and shapes appear. You awake, head reeling, to see a small bird sitting on your chest. It chirps. Speak to the bird Hello, you say. It chirps merrily, bobbing its head. You must have pleased it. Your stomach growls. The little bird shoots off into the woods. An untimely end to your budding friendship. You realize that you're starving. When's the last time you ate? Moments later, your bird friend returns. This time, it drops a beakful of berries into your lap and chirps at you again. Are these for me? you ask. You feel silly about thanking a bird. You decide to do it anyway before popping some of the berries into your mouth. They're sweet and surprisingly filling. There's even a few left over to save for later. You slip them into your pocket. You start to feel a bit better. You glance at the small bird again. It stares back, once more chirping merrily. It hops forward and sings a short sweet tune. It then stares at you again. Repeat tune You get the feeling that it is asking you for something. Bird's don't often make requests of you... You try to repeat the bird's tune back to it. Maybe that's the place to start? The hoarseness of your voice scares yourself and the little bird! Oh dear! You're parched. You're not much of a singer, but you're not that terrible. Some water would do you wonders. The bird hops away and returns, moments later, with a small glass vial of what looks like water. You take the tiniest sip. It's faintly fragrant and immediately makes you feel much better. You tuck what's left of the vial into your pocket. You clear your throat and try repeating the bird's tune again. The bird flutters its wings. Yes! Yes! Very good, very good! it sings. It then flies to the nearest branch. Come along! We've much to disgust. Did I say the right word then? No, it's discuss. Oh, of course! Do forgive me. Humanology is more my field. For example, I know you are a child by human standards, correct? No The bird ruffles its feathers. Have you looked at yourself recently? You look yourself over and, lo ...you really are a child. Weird. I knew it. I'm a professor you know. Rarely wrong, always right....except for when I'm wrong, but that's rare. What is your name? Dr. Peeps. Not to be confused with Dr. Peeps the younger. Or Dr. Peeps the fatter. Or Dr. Peeps the slightly cross-eyed. There's a lot of Dr. Peeps about. Common name amongst the birds. Easy to pronouce for the...*mouthes* non-talkers. I'm guessing you're smarter then. Not necessarily...but yes. He puffs up his chest proudly. Then you can tell me where I am? This is Tall Wood in the northeastern corner of Wonderland. Most animals can talk, some can't. Some can but don't bother, and some can't but try anyway. Anyway, if you head southwest, you can reach the Heart Kingdom. A long walk, mind you, but a wonderful city. By heading just south of here, you may find the village of Duchard, ruled by a most beautiful duchess. Close but quiet. What is it you're looking for? Some answers. To which questions? You have so many. It's impossible to answer them all. I'd suggest finding a cat then. Beastly, cunning things but they have an expansive knowledge of the world. Not a fan of cats? The bird shivers. It doesn't look like it wants to talk about that. You continue. Where do I find a cat? Oh, you do not find cats. They find you. You'll meet one when it wants to be met, and vice versa. Vice Versa? When you want to meet it, it will meet you. Before you have chance to insist that you want to meet it now, the bird carries  So, what else are you looking for? I'm simply not sure. If you don't know then it doesn't matter where you go, to paraphrase the cats. The bird pulls a disgusted face. Personally, I'd head for Duchard first and get yourself prepared. Prepared for what? Travel, my dear! You can't stay in one place if you want to get to another. That's logic! Tell me about Duchard. Duchard is a quiet but thriving village, ruled by a beautiful duchess. Not many people enter, so folk tend to be cautious and shy. However, they are kind enough. The duchess wouldn't allow unkindness or unwelcoming personalities or any kind of 'un' really. It's a short walk of about twenty minutes. Tell me about the Heart Kingdom. The Heart Kingdom is a city that surrounds the Heart Castle, where the Heart family live. Rather 'Hearty' if you ask me. Go on. It is the capital of Wonderland. We are ruled by Queen Nona Heart, a... The bird looks around before  Fat, old cow who does nothing but send folk to jail when they bug her. You're not sure why, but you feel slightly offended. He  It's a good half-day walk I'd imagine. I must say, you look simply ragged. You should rest up first in Duchard. I'll go to Duchard then. It's the wisest option, the bird cheeps. This way. You follow this bird through the woods. Soon things become familiar. The bread and butterflies, the caterpillars, the smell of fresh toadstools. It's soon apparent that you're not a stranger to the land as a whole, just to this place. As you are pondering, you come to the realisation that the bird has flown off, leaving you alone. The woods go on for a good while before you stumble upon a village. There is a  'DUCHARD'. You venture into the village. It is very dark now, and most of the lights are out, except one. You knock, and an old man answers. He stares at you for a good while, examining every detail of your face. I'm sorry to bother you but may I come in? He steps aside to allow you in. The room is warm, and you sit by the fire. You thank him for his kindness. However, he does not speak a word. He simply continues to stare at you. Is there anything wrong? Wrong? No, no. Simply...well, it's you. We don't often meet royalty. Royalty? He looks at you confused. You're.....You're Irascile Heart. The heir of the Heart Kingdom. Finally, you have awoken after many years! Who? Many years ago, Queen Nora of Hearts ordered that you were to be put to sleep until you were old enough to rule. Rumours that your governess made the potion too weak on purpose so that you may come back earlier spread like wild fire, but I had always brushed them off as myths, idle gossip, and yet, here you are! This is so strange. I feel faint. Would you care for some tea? he asks. I have fresh bread and jam too. Yes please. The old man toddles off. This is all so surreal. An heir? You? You are remembering now. Faint images of childhood. Names. Mary Ann. Phrenesis. But who did these names belong to? You ask the old man if you can stay the night and he allows it. He tries to give up his bed for you, but you won't allow it. Instead you sleep in his armchair. Tomorrow, you begin your journey to seek answers. To see if you can live up to this  Heir of the Heart Kingdom."</t>
+  </si>
+  <si>
+    <t>"Blackness. You're slowly waking from a dream. What was it about? It is already beginning to fade... Was there a mirror? A rabbit? I was having tea with someone... It all seemed so urgent! You try grasping for details, to try and hold onto the dream for just a little bit longer. Fading. It slips through your fingers and disappears. Like dreams often do. Slowly, whirling colors and shapes appear. You awake, head reeling, to see a small bird sitting on your chest. It chirps. Speak to the bird Hello, you say. It chirps merrily, bobbing its head. You must have pleased it. Your stomach growls. The little bird shoots off into the woods. An untimely end to your budding friendship. You realize that you're starving. When's the last time you ate? Moments later, your bird friend returns. This time, it drops a beakful of berries into your lap and chirps at you again. Are these for me? you ask. You feel silly about thanking a bird. You decide to do it anyway before popping some of the berries into your mouth. They're sweet and surprisingly filling. There's even a few left over to save for later. You slip them into your pocket. You start to feel a bit better. You glance at the small bird again. It stares back, once more chirping merrily. It hops forward and sings a short sweet tune. It then stares at you again. Repeat tune You get the feeling that it is asking you for something. Bird's don't often make requests of you... You try to repeat the bird's tune back to it. Maybe that's the place to start? The hoarseness of your voice scares yourself and the little bird! Oh dear! You're parched. You're not much of a singer, but you're not that terrible. Some water would do you wonders. The bird hops away and returns, moments later, with a small glass vial of what looks like water. You take the tiniest sip. It's faintly fragrant and immediately makes you feel much better. You tuck what's left of the vial into your pocket. You clear your throat and try repeating the bird's tune again. The bird flutters its wings. Yes! Yes! Very good, very good! it sings. It then flies to the nearest branch. Come along! We've much to disgust. Did I say the right word then? Birds can talk? How rude! Speciesist! The bird ruffles its feathers. How ludicrous. Oh be quiet! Well, I never! The bird flies away, leaving you alone in the woods. Well done. It's getting dark. Now what? Rest until morning It would be easier to navigate in the light. You curl up by a tree and try to sleep. The night is bitter and the wind howls in your ears....that was the wind, yes? Surely....no....no, you're just paranoid. It's nothing......isn't it? Stay there It's nothing. You curl back up to sleep. You begin to dream. You're running. She's going to find you if you don't hide! Quick, left or right? Left! You dash left, giggling away. You're giggling so much, you don't see where you're go- OUCH! You run right into Mary Ann, your best friend. You laugh together quietly until you hear, Ready or not, here I come! Mary Ann has run off. You head back to the right. The nettles are pricking your ankles, but you hardly care. You're having too much fun! Suddenly you stumble. As you pick yourself up, you see something on a thick tree trunk. Is that....is that a little door? It's the perfect size for a little child like you, plus you need a hiding place. Open it and hide inside It's dark behind the door. Incredibly quiet, which is strange as you're certain sound travels through wood. Perhaps this was a bad idea. Go back through the door You try to turn the handle, but it's locked. How did that happen? Still, you've got no choice. You begin to walk further into the tree. For a rather thin trunk, this place went on for a good few steps. All of a sudden, light floods the room from above. High above, you can see blue sky. Curiousity gets the best of you, and you begin to climb up towards it. Higher and higher you go, soon oblivious to why you were there in the first place. Eventually, you reach the top. The sweet gentle scent of daisy wafts up your nose. You look around at the world up top. It's brighter and clearer than  a field full of daisies. The hole you are in is located just beneath an old oak tree. In the distance you see children, like you but dressed in white, playing. You see an older gentleman, in white also. He calls to the  Now now, come along. I'd say you all were the loudest children in England! Now let's have you in! The children follow him. You want to meet them. You wanted to explore what was up the rabbit hole. This 'England.' You pull yourself slowly out of the-   A hand grabs your leg. You're falling down, down, down the rabbit hole. Further and further and further and-  You wake up. It's quiet..... except for the heavy breathing on your neck. You leap up with a start to see the most hideous black hound barking at you. RUN! You're sprinting through the woods. You can hear snarling behind you. You dare not turn around. You see ahead a village. Oh god, please let someone be a friend! You knock frantically at the door of the first house you find. An elderly man opens the door. Oddly, he stares at you, as though taking in every detail of your face. Please let me in! There are dogs after me! Your words shake him from his reverie. He sees the hound behind you, fast-approaching. A hound! You must have the scent of houndberries on you! he yelled. Ravenous hounds will track the scent of those berries for miles! Houndberries? What berries? Ah! You almost forgot! You still have some of the berries Dr. Peeps gave you. They're in your pocket! Maybe you can throw them away to distract the hound! Throw the berries into the woods! Without hesitation, you take the remaining berries from your pocket. With all your strength, you throw them far away from the house and into the woods. As if pulled by a string, the hound jerks away and runs in the direction of the berries. The barking fades as it bounds into the woods. You let out a sigh. What a relief! With the hound distracted, you turn to the old man for shelter. He steps aside, allowing you in. He puts a plank across the door, and the sound of dogs soon fades away. You thank the man, yet he continues to stare at you. Is there something wrong? Wrong? No, no. Simply...well, it's you. We don't often meet royalty. Royalty? He looks at you confused. You're.....You're Irascile Heart. The heir of the Heart Kingdom. Finally, you have awoken after many years! Who? Many years ago, Queen Nora of Hearts ordered that you were to be put to sleep until you were old enough to rule. Rumours that your governess made the potion too weak on purpose so that you may come back earlier spread like wild fire, but I had always brushed them off as myths, idle gossip, and yet, here you are! They left me in alone in the woods? No. You were left sealed in your room. That is the extent of my knowledge. Would you care for some tea? he asks. I have fresh bread and jam too. Yes. The old man toddles to the shelves. You could get use to this. The power. The respect. You are remembering now. Faint images of childhood. Names. Mary Ann. Phrenesis. But who did these names belong to? You decide to stay the night in the old man's house, taking his bed while he sleeps on the floor. Tomorrow, you begin your journey to seek answers. To seek your  Heir of the Heart Kingdom."</t>
   </si>
 </sst>
 </file>
@@ -261,18 +261,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -292,7 +286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,11 +603,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1DC3C1-B995-3B40-8EDE-15F3C4FDEBF0}">
   <dimension ref="A1:AF23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="10.83203125" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -622,7 +619,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -640,7 +637,7 @@
       <c r="B2">
         <v>1001</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
@@ -657,7 +654,7 @@
       <c r="B3">
         <v>1002</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
@@ -675,13 +672,13 @@
         <v>1003</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
@@ -691,14 +688,14 @@
       <c r="B5">
         <v>1004</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
+      <c r="C5" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
@@ -708,14 +705,14 @@
       <c r="B6">
         <v>1005</v>
       </c>
-      <c r="C6" t="s">
-        <v>17</v>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
@@ -725,14 +722,14 @@
       <c r="B7">
         <v>1006</v>
       </c>
-      <c r="C7" t="s">
-        <v>20</v>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
@@ -742,14 +739,14 @@
       <c r="B8">
         <v>1007</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
+      <c r="C8" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
@@ -759,14 +756,14 @@
       <c r="B9">
         <v>1010</v>
       </c>
-      <c r="C9" t="s">
-        <v>26</v>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
@@ -776,14 +773,14 @@
       <c r="B10">
         <v>1011</v>
       </c>
-      <c r="C10" t="s">
-        <v>29</v>
+      <c r="C10" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
@@ -793,14 +790,14 @@
       <c r="B11">
         <v>1012</v>
       </c>
-      <c r="C11" t="s">
-        <v>32</v>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
@@ -810,14 +807,14 @@
       <c r="B12">
         <v>1013</v>
       </c>
-      <c r="C12" t="s">
-        <v>35</v>
+      <c r="C12" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
@@ -827,14 +824,14 @@
       <c r="B13">
         <v>1014</v>
       </c>
-      <c r="C13" t="s">
-        <v>38</v>
+      <c r="C13" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
@@ -844,14 +841,14 @@
       <c r="B14">
         <v>1015</v>
       </c>
-      <c r="C14" t="s">
-        <v>41</v>
+      <c r="C14" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
@@ -861,14 +858,14 @@
       <c r="B15">
         <v>1017</v>
       </c>
-      <c r="C15" t="s">
-        <v>44</v>
+      <c r="C15" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
@@ -878,14 +875,14 @@
       <c r="B16">
         <v>1018</v>
       </c>
-      <c r="C16" t="s">
-        <v>47</v>
+      <c r="C16" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -895,14 +892,14 @@
       <c r="B17">
         <v>1019</v>
       </c>
-      <c r="C17" t="s">
-        <v>50</v>
+      <c r="C17" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -912,14 +909,14 @@
       <c r="B18">
         <v>1020</v>
       </c>
-      <c r="C18" t="s">
-        <v>53</v>
+      <c r="C18" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -929,14 +926,14 @@
       <c r="B19">
         <v>1021</v>
       </c>
-      <c r="C19" t="s">
-        <v>56</v>
+      <c r="C19" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -946,14 +943,14 @@
       <c r="B20">
         <v>1022</v>
       </c>
-      <c r="C20" t="s">
-        <v>59</v>
+      <c r="C20" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -963,14 +960,14 @@
       <c r="B21">
         <v>1025</v>
       </c>
-      <c r="C21" t="s">
-        <v>62</v>
+      <c r="C21" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E21" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -980,14 +977,14 @@
       <c r="B22">
         <v>1026</v>
       </c>
-      <c r="C22" t="s">
-        <v>65</v>
+      <c r="C22" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -997,14 +994,14 @@
       <c r="B23">
         <v>1027</v>
       </c>
-      <c r="C23" t="s">
-        <v>68</v>
+      <c r="C23" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E23" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
